--- a/docs/WMX3API_MCEval_Evaluation_Dataset_ref_only.xlsx
+++ b/docs/WMX3API_MCEval_Evaluation_Dataset_ref_only.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760"/>
+    <workbookView windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Eval" sheetId="2" r:id="rId1"/>
@@ -1903,8 +1903,8 @@
   <sheetPr/>
   <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="113" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="16.8" outlineLevelCol="5"/>
